--- a/Database/RDBMS/Book management system.xlsx
+++ b/Database/RDBMS/Book management system.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="450" windowWidth="14880" windowHeight="6885"/>
+    <workbookView xWindow="480" yWindow="450" windowWidth="14880" windowHeight="6885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Customer</t>
   </si>
@@ -77,6 +78,60 @@
   </si>
   <si>
     <t>customer_name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>IdBook</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>NameBook</t>
+  </si>
+  <si>
+    <t>Sach1</t>
+  </si>
+  <si>
+    <t>Sach2</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật ánh</t>
+  </si>
+  <si>
+    <t>Sach3</t>
+  </si>
+  <si>
+    <t>Sach4</t>
+  </si>
+  <si>
+    <t>Sach5</t>
+  </si>
+  <si>
+    <t>Tố Hữu</t>
+  </si>
+  <si>
+    <t>Sach6</t>
+  </si>
+  <si>
+    <t>IdCustomer</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer1</t>
+  </si>
+  <si>
+    <t>Customer2</t>
   </si>
 </sst>
 </file>
@@ -226,7 +281,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +396,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -673,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -690,6 +769,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - アクセント 1 2" xfId="3"/>
@@ -1280,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1577,4 +1660,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" activeCellId="1" sqref="D8 D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14">
+        <v>12</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="14">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14">
+        <v>12</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="15">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="15">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/RDBMS/Book management system.xlsx
+++ b/Database/RDBMS/Book management system.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="450" windowWidth="14880" windowHeight="6885" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="450" windowWidth="14880" windowHeight="6885"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
+    <sheet name="Mô hình Book" sheetId="9" r:id="rId1"/>
+    <sheet name="Mô tả cách chuẩn hóa" sheetId="10" r:id="rId2"/>
+    <sheet name="Ví dụ mẫu khác hàng và order" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>Customer</t>
   </si>
@@ -38,9 +39,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
     <t>publishYear</t>
   </si>
   <si>
@@ -132,6 +130,21 @@
   </si>
   <si>
     <t>Customer2</t>
+  </si>
+  <si>
+    <t>idAuthor</t>
+  </si>
+  <si>
+    <t>date_of_death</t>
+  </si>
+  <si>
+    <t>date_of_birdth</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/10155054/relationship-between-orders-customers-and-products?utm_medium=organic&amp;utm_source=google_rich_qa&amp;utm_campaign=google_rich_qa</t>
+  </si>
+  <si>
+    <t>Qua vậy sẽ loại bỏ dư thừa</t>
   </si>
 </sst>
 </file>
@@ -423,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -618,6 +631,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -752,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -769,10 +819,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - アクセント 1 2" xfId="3"/>
@@ -845,9 +909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -857,7 +921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2276475" y="1847850"/>
-          <a:ext cx="419100" cy="2181225"/>
+          <a:ext cx="409575" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1069,6 +1133,242 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5114925" y="2562225"/>
+          <a:ext cx="1257300" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="1933575"/>
+          <a:ext cx="1828800" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1133475" y="1962150"/>
+          <a:ext cx="504825" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="1924050"/>
+          <a:ext cx="2533650" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>370590</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="571500"/>
+          <a:ext cx="7076190" cy="3933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1363,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1384,7 +1684,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
@@ -1406,19 +1706,19 @@
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
       <c r="P8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="3:18">
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>2</v>
@@ -1439,17 +1739,17 @@
     </row>
     <row r="10" spans="3:18">
       <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="6"/>
       <c r="K10" s="4" t="s">
@@ -1462,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
@@ -1498,7 +1798,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
       <c r="P12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="6"/>
@@ -1526,8 +1826,11 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
-      <c r="K14" s="4" t="s">
-        <v>9</v>
+      <c r="J14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
@@ -1562,11 +1865,13 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
       <c r="N20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="3"/>
@@ -1575,30 +1880,34 @@
       <c r="E21" s="4"/>
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="J21" s="6"/>
       <c r="N21" s="4"/>
       <c r="O21" s="5"/>
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="4:16">
-      <c r="D22" s="10" t="s">
-        <v>16</v>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="H22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6"/>
       <c r="N22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P22" s="6"/>
     </row>
@@ -1608,11 +1917,13 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="J23" s="6"/>
       <c r="M23" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>4</v>
@@ -1621,26 +1932,30 @@
     </row>
     <row r="24" spans="4:16">
       <c r="E24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="J24" s="6"/>
       <c r="N24" s="4"/>
       <c r="O24" s="5"/>
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="4:16">
       <c r="E25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="J25" s="6"/>
       <c r="N25" s="4"/>
       <c r="O25" s="5"/>
       <c r="P25" s="6"/>
@@ -1649,9 +1964,9 @@
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
       <c r="N26" s="7"/>
       <c r="O26" s="8"/>
       <c r="P26" s="9"/>
@@ -1664,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H10"/>
+  <dimension ref="B3:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" activeCellId="1" sqref="D8 D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1678,138 +1993,348 @@
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="2:14">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="14">
         <v>12</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6">
+      <c r="F5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>28</v>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="14">
         <v>12</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7">
+      <c r="F6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="4">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="14">
         <v>12</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8">
+      <c r="F7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="4">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>28</v>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="14">
         <v>12</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="4">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="16">
+        <v>13</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9">
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="7">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="18">
+        <v>13</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="4"/>
+      <c r="C16" s="6"/>
+      <c r="E16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="4">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="14">
+        <v>12</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="14">
+        <v>12</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="4">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="14">
+        <v>12</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="14">
+        <v>12</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="4">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="I21" s="16">
+        <v>13</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="7">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E22" s="7"/>
+      <c r="F22" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="18">
         <v>13</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="15">
-        <v>13</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="J22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database/RDBMS/Book management system.xlsx
+++ b/Database/RDBMS/Book management system.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="450" windowWidth="14880" windowHeight="6885"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>Customer</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Book_Category</t>
   </si>
   <si>
-    <t>customer_name</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -145,13 +142,28 @@
   </si>
   <si>
     <t>Qua vậy sẽ loại bỏ dư thừa</t>
+  </si>
+  <si>
+    <t>Tổng số tiền order</t>
+  </si>
+  <si>
+    <t>totalPrice</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Ngày order</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,8 +305,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -837,6 +862,8 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - アクセント 1 2" xfId="3"/>
@@ -903,9 +930,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -920,8 +947,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2276475" y="1847850"/>
-          <a:ext cx="409575" cy="2286000"/>
+          <a:off x="2200275" y="1628775"/>
+          <a:ext cx="485775" cy="2505075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1044,13 +1071,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
+      <xdr:colOff>552452</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -1061,8 +1088,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6915151" y="1638301"/>
-          <a:ext cx="1276349" cy="2619374"/>
+          <a:off x="6915152" y="1638301"/>
+          <a:ext cx="609598" cy="2619374"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1090,16 +1117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1108,8 +1135,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8953500" y="1828800"/>
-          <a:ext cx="400050" cy="2219325"/>
+          <a:off x="8362950" y="4095750"/>
+          <a:ext cx="1657350" cy="38101"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1661,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:R26"/>
+  <dimension ref="C6:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1705,17 +1732,18 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
-      <c r="P8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="3"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="3:18">
       <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="10" t="s">
         <v>15</v>
@@ -1733,18 +1761,15 @@
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
-      <c r="P9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="6"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="3:18">
       <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>42</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1758,18 +1783,15 @@
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="6"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="3:18">
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
@@ -1779,11 +1801,10 @@
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
-      <c r="P11" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="6"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="3:18">
       <c r="C12" s="4"/>
@@ -1797,11 +1818,10 @@
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
-      <c r="P12" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="6"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="3:18">
       <c r="C13" s="4"/>
@@ -1815,9 +1835,10 @@
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
-      <c r="P13" s="4"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="3:18">
       <c r="C14" s="4"/>
@@ -1830,13 +1851,14 @@
         <v>15</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
-      <c r="P14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="6"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="3:18">
       <c r="C15" s="7"/>
@@ -1845,49 +1867,86 @@
       <c r="K15" s="4"/>
       <c r="L15" s="11"/>
       <c r="M15" s="6"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="3:18">
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="4:16">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="29"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8"/>
       <c r="M17" s="9"/>
-    </row>
-    <row r="20" spans="4:16">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
       <c r="E20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="5"/>
       <c r="H20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
-      <c r="N20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="4:16">
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="Q20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="3:19">
       <c r="E21" s="4"/>
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
       <c r="J21" s="6"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="4:16">
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="3:19">
       <c r="D22">
         <v>1</v>
       </c>
@@ -1897,21 +1956,26 @@
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
       <c r="H22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="11">
         <v>1</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="N22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="N22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="4:16">
+      <c r="O22" s="6"/>
+      <c r="Q22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="3:19">
       <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1922,58 +1986,80 @@
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
-      <c r="M23" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="4:16">
+      <c r="O23" s="6"/>
+      <c r="Q23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="3:19">
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
       <c r="H24" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="4:16">
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="6"/>
+      <c r="Q24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="3:19">
       <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
       <c r="H25" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="4:16">
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="6"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="3:19">
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
       <c r="G26" s="5"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
       <c r="J26" s="9"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="9"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="Q27" s="7"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1995,25 +2081,25 @@
   <sheetData>
     <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -2030,19 +2116,19 @@
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="14">
         <v>12</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -2051,19 +2137,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="14">
         <v>12</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -2072,16 +2158,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="14">
         <v>12</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
@@ -2091,16 +2177,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="14">
         <v>12</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
@@ -2110,16 +2196,16 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>31</v>
       </c>
       <c r="E9" s="16">
         <v>13</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
@@ -2129,52 +2215,52 @@
         <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="18">
         <v>13</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>
       <c r="E16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>5</v>
@@ -2189,22 +2275,22 @@
         <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="14">
         <v>12</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L17" s="6"/>
     </row>
@@ -2213,20 +2299,20 @@
         <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="14">
         <v>12</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L18" s="6"/>
     </row>
@@ -2235,17 +2321,17 @@
         <v>12</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" s="14">
         <v>12</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6"/>
@@ -2255,17 +2341,17 @@
         <v>13</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="14">
         <v>12</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
@@ -2275,19 +2361,19 @@
         <v>14</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21" s="16">
         <v>13</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
@@ -2297,17 +2383,17 @@
         <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22" s="18">
         <v>13</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
@@ -2330,7 +2416,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Database/RDBMS/Book management system.xlsx
+++ b/Database/RDBMS/Book management system.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="59">
   <si>
     <t>Customer</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Order-Book</t>
   </si>
   <si>
-    <t>Book_Category</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -157,6 +154,48 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Kiểu dữ liệu</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Độ dài dữ liệu</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>OrderBook</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>số quyển sách</t>
+  </si>
+  <si>
+    <t>Giair thích</t>
+  </si>
+  <si>
+    <t>giai thích</t>
+  </si>
+  <si>
+    <t>BookCategory</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Bảng</t>
+  </si>
+  <si>
+    <t>Chi tiết</t>
   </si>
 </sst>
 </file>
@@ -827,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -864,6 +903,8 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - アクセント 1 2" xfId="3"/>
@@ -931,13 +972,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -978,13 +1019,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1025,13 +1066,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1072,13 +1113,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552452</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1119,13 +1160,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1166,13 +1207,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1688,76 +1729,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:S27"/>
+  <dimension ref="A2:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:18">
-      <c r="C6" s="1" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="3:18">
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="C6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="K6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="3:18">
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
+      <c r="G7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="K7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
-      <c r="K8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="3:18">
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>15</v>
-      </c>
+    <row r="9" spans="1:19">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
-      <c r="J9">
-        <v>1</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
@@ -1766,56 +1887,40 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="3:18">
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="5" t="s">
+    <row r="10" spans="1:19">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="K10" s="4" t="s">
-        <v>5</v>
+      <c r="K10" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="10"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="3:18">
-      <c r="C11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="K11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="5"/>
+    <row r="11" spans="1:19">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="3:18">
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="K12" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="12" spans="1:19">
+      <c r="K12" s="4"/>
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
       <c r="O12" s="5"/>
@@ -1823,120 +1928,153 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="3:18">
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="K13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
+    <row r="13" spans="1:19">
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="3:18">
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10" t="s">
+    <row r="14" spans="1:19">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="M16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
+      <c r="Q16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="M18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="O18" s="6"/>
+      <c r="Q18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="L19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="Q19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="3:18">
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="6"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="3:18">
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="3:19">
-      <c r="C17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="3:19">
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19">
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19">
-      <c r="E20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3"/>
-      <c r="M20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="3"/>
-      <c r="Q20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
-    </row>
-    <row r="21" spans="3:19">
-      <c r="E21" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="Q20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="6"/>
       <c r="M21" s="4"/>
@@ -1946,115 +2084,631 @@
       <c r="R21" s="5"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="3:19">
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="6"/>
+    <row r="22" spans="1:20">
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="M22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O22" s="6"/>
-      <c r="Q22" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
       <c r="S22" s="6"/>
     </row>
-    <row r="23" spans="3:19">
-      <c r="E23" s="4" t="s">
+    <row r="23" spans="1:20">
+      <c r="Q23" s="7"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5">
+        <v>11</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="N27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5">
+        <v>11</v>
+      </c>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <v>11</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="N28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4" t="s">
+      <c r="O28" s="5"/>
+      <c r="P28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5">
+        <v>200</v>
+      </c>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="C29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
+        <v>11</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="N29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="C30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+      <c r="N30" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20">
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="3:20">
+      <c r="C34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
+        <v>11</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+      <c r="N34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5">
+        <v>11</v>
+      </c>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="3:20">
+      <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5">
+        <v>11</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="N35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5">
+        <v>11</v>
+      </c>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="3:20">
+      <c r="C36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5">
+        <v>11</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="3:20">
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="3:20">
+      <c r="N38" s="7"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="9"/>
+    </row>
+    <row r="40" spans="3:20">
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20">
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="3:20">
+      <c r="C42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5">
+        <v>11</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+      <c r="N42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="3:20">
+      <c r="C43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="L23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="4" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
+        <v>100</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6"/>
+      <c r="N43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5">
+        <v>200</v>
+      </c>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="3:20">
+      <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5">
+        <v>300</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
+      <c r="N44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5">
+        <v>300</v>
+      </c>
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="3:20">
+      <c r="C45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
+        <v>20</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="3:20">
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="3:20">
+      <c r="N47" s="7"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="3:20">
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="Q23" s="4" t="s">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5">
+        <v>11</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="6"/>
-    </row>
-    <row r="24" spans="3:19">
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="6"/>
-      <c r="Q24" s="4" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5">
+        <v>200</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5">
+        <v>20</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="3:9">
+      <c r="C54" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="30">
         <v>11</v>
       </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="6"/>
-    </row>
-    <row r="25" spans="3:19">
-      <c r="E25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="6"/>
-    </row>
-    <row r="26" spans="3:19">
-      <c r="E26" s="7"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="6"/>
-    </row>
-    <row r="27" spans="3:19">
-      <c r="Q27" s="7"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="9"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2081,25 +2735,25 @@
   <sheetData>
     <row r="3" spans="2:14">
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -2116,19 +2770,19 @@
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="14">
         <v>12</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -2137,19 +2791,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="14">
         <v>12</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -2158,16 +2812,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="14">
         <v>12</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
@@ -2177,16 +2831,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="14">
         <v>12</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
@@ -2196,16 +2850,16 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="16">
         <v>13</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
@@ -2215,52 +2869,52 @@
         <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="18">
         <v>13</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>5</v>
@@ -2275,22 +2929,22 @@
         <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="14">
         <v>12</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" s="6"/>
     </row>
@@ -2299,20 +2953,20 @@
         <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="14">
         <v>12</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="6"/>
     </row>
@@ -2321,17 +2975,17 @@
         <v>12</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="14">
         <v>12</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6"/>
@@ -2341,17 +2995,17 @@
         <v>13</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="14">
         <v>12</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
@@ -2361,19 +3015,19 @@
         <v>14</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="16">
         <v>13</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
@@ -2383,17 +3037,17 @@
         <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="18">
         <v>13</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
@@ -2416,7 +3070,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Database/RDBMS/Book management system.xlsx
+++ b/Database/RDBMS/Book management system.xlsx
@@ -1129,8 +1129,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6915152" y="1638301"/>
-          <a:ext cx="609598" cy="2619374"/>
+          <a:off x="7097488" y="876301"/>
+          <a:ext cx="612319" cy="2619374"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1160,14 +1160,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>27214</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>133352</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1176,8 +1176,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8362950" y="4095750"/>
-          <a:ext cx="1657350" cy="38101"/>
+          <a:off x="8961664" y="2626179"/>
+          <a:ext cx="1692729" cy="745673"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1731,14 +1731,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
@@ -1916,8 +1917,6 @@
       <c r="M11" s="6"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:19">
       <c r="K12" s="4"/>
@@ -1925,8 +1924,11 @@
       <c r="M12" s="6"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="Q12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19">
       <c r="C13" s="4" t="s">
@@ -1941,8 +1943,9 @@
       <c r="M13" s="9"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19">
       <c r="C14" t="s">
@@ -1951,11 +1954,24 @@
       <c r="D14" t="s">
         <v>43</v>
       </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19">
       <c r="D15" t="s">
         <v>44</v>
       </c>
+      <c r="Q15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19">
       <c r="E16" s="1" t="s">
@@ -1973,11 +1989,11 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
-      <c r="Q16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
+      <c r="Q16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:20">
       <c r="E17" s="4"/>
@@ -2016,9 +2032,7 @@
         <v>15</v>
       </c>
       <c r="O18" s="6"/>
-      <c r="Q18" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
       <c r="S18" s="6"/>
     </row>
@@ -2040,11 +2054,9 @@
         <v>4</v>
       </c>
       <c r="O19" s="6"/>
-      <c r="Q19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="6"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
     </row>
     <row r="20" spans="1:20">
       <c r="E20" s="4" t="s">
@@ -2060,11 +2072,6 @@
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="6"/>
-      <c r="Q20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:20">
       <c r="E21" s="4" t="s">
@@ -2080,9 +2087,6 @@
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="6"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:20">
       <c r="E22" s="7"/>
@@ -2094,14 +2098,6 @@
       <c r="M22" s="7"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="Q23" s="7"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="9"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
